--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962D0EC-C419-BD4A-B720-9D65EB8ADA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDE16A-7A8E-CA45-949E-8C8B3043FFD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="250">
   <si>
     <t>connection</t>
   </si>
@@ -775,6 +775,18 @@
   </si>
   <si>
     <t>EX_WOOD</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>kton</t>
+  </si>
+  <si>
+    <t>EC_WIND    </t>
+  </si>
+  <si>
+    <t>ED_SOLPV   </t>
   </si>
 </sst>
 </file>
@@ -785,7 +797,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +834,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -856,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -882,6 +900,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10799,8 +10818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10880,40 +10899,88 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="15">
+        <v>2030</v>
+      </c>
+      <c r="B6" s="15">
+        <v>509.7</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="15">
+        <v>152.91</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="15">
+        <v>2035</v>
+      </c>
+      <c r="B7" s="15">
+        <v>564.79999999999995</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="15">
+        <v>169.44</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="15">
+        <v>2040</v>
+      </c>
+      <c r="B8" s="15">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="15">
+        <v>400.92</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="15">
+        <v>2045</v>
+      </c>
+      <c r="B9" s="15">
+        <v>668.8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15">
+        <v>434.72</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="15">
+        <v>2050</v>
+      </c>
+      <c r="B10" s="15">
+        <v>720.8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="15">
+        <v>720.8</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="15">
+        <v>2055</v>
+      </c>
+      <c r="B11" s="15">
+        <v>772.7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="15">
+        <v>772.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11070,10 +11137,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11162,6 +11229,342 @@
         <v>166</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2030</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2030</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2030</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2030</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2035</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2035</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2035</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2040</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2040</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2040</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2040</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2045</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2045</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2045</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2045</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2050</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2050</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2050</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2050</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11169,7 +11572,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D8"/>
@@ -11211,6 +11614,90 @@
         <v>240</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="25">
+        <v>23800</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>2030</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="25">
+        <v>19600</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>2035</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="25">
+        <v>14700</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="25">
+        <v>9800</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>2045</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="25">
+        <v>4900</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDE16A-7A8E-CA45-949E-8C8B3043FFD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001104C-F323-AA4B-9EF1-E58A3AEF3B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="248">
   <si>
     <t>connection</t>
   </si>
@@ -781,12 +781,6 @@
   </si>
   <si>
     <t>kton</t>
-  </si>
-  <si>
-    <t>EC_WIND    </t>
-  </si>
-  <si>
-    <t>ED_SOLPV   </t>
   </si>
 </sst>
 </file>
@@ -11140,7 +11134,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D30"/>
+      <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11230,338 +11224,338 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>0.08</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>248</v>
+      <c r="A8" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8">
         <v>0.08</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>249</v>
+      <c r="A9" t="s">
+        <v>231</v>
       </c>
       <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9">
         <v>0.08</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10">
         <v>0.08</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="15">
         <v>2030</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11">
         <v>0.08</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>248</v>
+      <c r="A12" t="s">
+        <v>230</v>
       </c>
       <c r="B12" s="15">
         <v>2030</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12">
         <v>0.08</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>249</v>
+      <c r="A13" t="s">
+        <v>231</v>
       </c>
       <c r="B13" s="15">
         <v>2030</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13">
         <v>0.08</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="15">
         <v>2030</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14">
         <v>0.08</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="15">
         <v>2035</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15">
         <v>0.08</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>248</v>
+      <c r="A16" t="s">
+        <v>230</v>
       </c>
       <c r="B16" s="15">
         <v>2035</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16">
         <v>0.08</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>249</v>
+      <c r="A17" t="s">
+        <v>231</v>
       </c>
       <c r="B17" s="15">
         <v>2035</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17">
         <v>0.08</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="15">
         <v>2035</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18">
         <v>0.08</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="15">
         <v>2040</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19">
         <v>0.08</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>248</v>
+      <c r="A20" t="s">
+        <v>230</v>
       </c>
       <c r="B20" s="15">
         <v>2040</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20">
         <v>0.08</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>249</v>
+      <c r="A21" t="s">
+        <v>231</v>
       </c>
       <c r="B21" s="15">
         <v>2040</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21">
         <v>0.08</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="15">
         <v>2040</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22">
         <v>0.08</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="15">
         <v>2045</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23">
         <v>0.08</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>248</v>
+      <c r="A24" t="s">
+        <v>230</v>
       </c>
       <c r="B24" s="15">
         <v>2045</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24">
         <v>0.08</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>249</v>
+      <c r="A25" t="s">
+        <v>231</v>
       </c>
       <c r="B25" s="15">
         <v>2045</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25">
         <v>0.08</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="15">
         <v>2045</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26">
         <v>0.08</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="15">
         <v>2050</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27">
         <v>0.08</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>248</v>
+      <c r="A28" t="s">
+        <v>230</v>
       </c>
       <c r="B28" s="15">
         <v>2050</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28">
         <v>0.08</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>249</v>
+      <c r="A29" t="s">
+        <v>231</v>
       </c>
       <c r="B29" s="15">
         <v>2050</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29">
         <v>0.08</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" t="s">
         <v>133</v>
       </c>
       <c r="B30" s="15">
         <v>2050</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30">
         <v>0.08</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" t="s">
         <v>166</v>
       </c>
     </row>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001104C-F323-AA4B-9EF1-E58A3AEF3B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4563EA-819F-49DE-8994-550BF88F35A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="249">
   <si>
     <t>connection</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>kton</t>
+  </si>
+  <si>
+    <t>StorageDuration</t>
   </si>
 </sst>
 </file>
@@ -1211,12 +1214,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1273,13 +1276,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1331,32 +1334,32 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1388,13 +1391,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -1468,21 +1471,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -1784,12 +1787,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1824,20 +1827,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1865,8 +1868,11 @@
       <c r="I1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1894,8 +1900,11 @@
       <c r="I2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>113</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>207</v>
       </c>
@@ -2181,7 +2190,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>223</v>
       </c>
@@ -2232,8 +2241,11 @@
       <c r="H15" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>214</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>245</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>224</v>
       </c>
@@ -2310,8 +2322,11 @@
       <c r="H18" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>115</v>
       </c>
@@ -2336,8 +2351,11 @@
       <c r="H19" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>116</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>196</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>197</v>
       </c>
@@ -2415,7 +2433,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
@@ -2441,7 +2459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>117</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>118</v>
       </c>
@@ -2493,7 +2511,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>119</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>120</v>
       </c>
@@ -2545,7 +2563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>129</v>
       </c>
@@ -2570,8 +2588,11 @@
       <c r="H28" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
@@ -2597,7 +2618,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>176</v>
       </c>
@@ -2623,7 +2644,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>131</v>
       </c>
@@ -2649,7 +2670,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>132</v>
       </c>
@@ -2675,7 +2696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>133</v>
       </c>
@@ -2735,18 +2756,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2775,7 +2796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
@@ -2854,7 +2875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -2879,7 +2900,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -2929,7 +2950,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>110</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -3004,7 +3025,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
@@ -3029,7 +3050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
@@ -3054,7 +3075,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>207</v>
       </c>
@@ -3079,7 +3100,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>214</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>223</v>
       </c>
@@ -3129,7 +3150,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -3154,7 +3175,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>245</v>
       </c>
@@ -3179,7 +3200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>115</v>
       </c>
@@ -3204,7 +3225,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>224</v>
       </c>
@@ -3229,7 +3250,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>116</v>
       </c>
@@ -3254,7 +3275,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>196</v>
       </c>
@@ -3279,7 +3300,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>197</v>
       </c>
@@ -3304,7 +3325,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>199</v>
       </c>
@@ -3329,7 +3350,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>117</v>
       </c>
@@ -3354,7 +3375,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>118</v>
       </c>
@@ -3379,7 +3400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>119</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
@@ -3429,7 +3450,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>129</v>
       </c>
@@ -3454,7 +3475,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>130</v>
       </c>
@@ -3479,7 +3500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>176</v>
       </c>
@@ -3504,7 +3525,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>131</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>132</v>
       </c>
@@ -3554,7 +3575,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>133</v>
       </c>
@@ -3593,18 +3614,18 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3627,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3650,7 +3671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>104</v>
       </c>
@@ -3671,7 +3692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
@@ -3692,7 +3713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -3713,7 +3734,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -3734,7 +3755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -3755,7 +3776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -3776,7 +3797,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>110</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
@@ -3839,7 +3860,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
@@ -3860,7 +3881,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>207</v>
       </c>
@@ -3881,7 +3902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>214</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>223</v>
       </c>
@@ -3923,7 +3944,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -3944,7 +3965,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>245</v>
       </c>
@@ -3965,7 +3986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>115</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>224</v>
       </c>
@@ -4011,7 +4032,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>116</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>196</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>197</v>
       </c>
@@ -4080,7 +4101,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>199</v>
       </c>
@@ -4103,7 +4124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>117</v>
       </c>
@@ -4126,7 +4147,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>118</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>119</v>
       </c>
@@ -4172,7 +4193,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
@@ -4195,7 +4216,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>129</v>
       </c>
@@ -4218,7 +4239,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>130</v>
       </c>
@@ -4241,7 +4262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>176</v>
       </c>
@@ -4264,7 +4285,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>131</v>
       </c>
@@ -4287,7 +4308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>132</v>
       </c>
@@ -4310,7 +4331,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>133</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -4353,18 +4374,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +4408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4410,7 +4431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -4443,7 +4464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -4454,7 +4475,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
@@ -4465,7 +4486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -4476,21 +4497,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
@@ -4499,14 +4520,14 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>207</v>
       </c>
@@ -4517,14 +4538,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -4535,7 +4556,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>115</v>
       </c>
@@ -4546,7 +4567,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>224</v>
       </c>
@@ -4557,7 +4578,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>116</v>
       </c>
@@ -4572,7 +4593,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>196</v>
       </c>
@@ -4587,7 +4608,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>197</v>
       </c>
@@ -4602,7 +4623,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>199</v>
       </c>
@@ -4617,7 +4638,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
@@ -4628,7 +4649,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>118</v>
       </c>
@@ -4641,7 +4662,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>119</v>
       </c>
@@ -4656,7 +4677,7 @@
       </c>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>120</v>
       </c>
@@ -4664,12 +4685,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>130</v>
       </c>
@@ -4680,12 +4701,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>131</v>
       </c>
@@ -4693,7 +4714,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -4704,7 +4725,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -4723,14 +4744,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +4765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4758,7 +4779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -4772,7 +4793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -4783,7 +4804,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -4794,7 +4815,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4808,7 +4829,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4822,7 +4843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4836,7 +4857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4850,7 +4871,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -4861,7 +4882,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4875,7 +4896,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -4889,7 +4910,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -4903,7 +4924,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -4917,7 +4938,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -4931,7 +4952,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -4945,7 +4966,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -4973,14 +4994,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -4988,7 +5009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4996,7 +5017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5014,15 +5035,15 @@
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5039,7 +5060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5056,7 +5077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
@@ -5073,7 +5094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -5090,7 +5111,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -5107,7 +5128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -5124,7 +5145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -5141,7 +5162,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
@@ -5158,7 +5179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
@@ -5175,7 +5196,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -5192,7 +5213,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -5209,7 +5230,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>93</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
@@ -5243,7 +5264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
@@ -5260,7 +5281,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -5277,7 +5298,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -5294,7 +5315,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -5311,7 +5332,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -5328,7 +5349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
@@ -5345,7 +5366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -5362,7 +5383,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
@@ -5379,7 +5400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
@@ -5396,7 +5417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -5413,7 +5434,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -5430,7 +5451,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -5447,7 +5468,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -5464,7 +5485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -5498,7 +5519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -5515,7 +5536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -5549,7 +5570,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -5566,7 +5587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -5583,7 +5604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>93</v>
       </c>
@@ -5617,7 +5638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
@@ -5634,7 +5655,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -5651,7 +5672,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -5668,7 +5689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -5685,7 +5706,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -5702,7 +5723,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -5719,7 +5740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -5736,7 +5757,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -5753,7 +5774,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -5770,7 +5791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
@@ -5787,7 +5808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
@@ -5804,7 +5825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -5821,7 +5842,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -5838,7 +5859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -5855,7 +5876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
@@ -5872,7 +5893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -5889,7 +5910,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
@@ -5906,7 +5927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -5923,7 +5944,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
@@ -5940,7 +5961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>93</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -5974,7 +5995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
@@ -5991,7 +6012,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -6008,7 +6029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -6025,7 +6046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6042,7 +6063,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>93</v>
       </c>
@@ -6059,7 +6080,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>93</v>
       </c>
@@ -6076,7 +6097,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>93</v>
       </c>
@@ -6093,7 +6114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>93</v>
       </c>
@@ -6110,7 +6131,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
@@ -6127,7 +6148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -6144,7 +6165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>93</v>
       </c>
@@ -6161,7 +6182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>93</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -6195,7 +6216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -6212,7 +6233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>93</v>
       </c>
@@ -6229,7 +6250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -6246,7 +6267,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>93</v>
       </c>
@@ -6263,7 +6284,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>93</v>
       </c>
@@ -6280,7 +6301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
@@ -6297,7 +6318,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>93</v>
       </c>
@@ -6314,7 +6335,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>93</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -6348,7 +6369,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -6365,7 +6386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -6382,7 +6403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -6399,7 +6420,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -6416,7 +6437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
@@ -6433,7 +6454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -6450,7 +6471,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -6467,7 +6488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -6484,7 +6505,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
@@ -6501,7 +6522,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -6518,7 +6539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -6552,7 +6573,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -6569,7 +6590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -6586,7 +6607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
@@ -6603,7 +6624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -6620,7 +6641,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -6637,7 +6658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
@@ -6654,7 +6675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
@@ -6688,7 +6709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>93</v>
       </c>
@@ -6705,7 +6726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -6722,7 +6743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
@@ -6739,7 +6760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>93</v>
       </c>
@@ -6756,7 +6777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>93</v>
       </c>
@@ -6773,7 +6794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>93</v>
       </c>
@@ -6790,7 +6811,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>93</v>
       </c>
@@ -6807,7 +6828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>93</v>
       </c>
@@ -6824,7 +6845,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>93</v>
       </c>
@@ -6841,7 +6862,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>93</v>
       </c>
@@ -6858,7 +6879,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>93</v>
       </c>
@@ -6875,7 +6896,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>93</v>
       </c>
@@ -6892,7 +6913,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>93</v>
       </c>
@@ -6909,7 +6930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
@@ -6926,7 +6947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>93</v>
       </c>
@@ -6943,7 +6964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>93</v>
       </c>
@@ -6960,7 +6981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>93</v>
       </c>
@@ -6977,7 +6998,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>93</v>
       </c>
@@ -6994,7 +7015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>93</v>
       </c>
@@ -7011,7 +7032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
@@ -7028,7 +7049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>93</v>
       </c>
@@ -7045,7 +7066,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>93</v>
       </c>
@@ -7062,7 +7083,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>93</v>
       </c>
@@ -7079,7 +7100,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>93</v>
       </c>
@@ -7096,7 +7117,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>93</v>
       </c>
@@ -7113,7 +7134,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>93</v>
       </c>
@@ -7130,7 +7151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>93</v>
       </c>
@@ -7147,7 +7168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>93</v>
       </c>
@@ -7164,7 +7185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>93</v>
       </c>
@@ -7181,7 +7202,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>93</v>
       </c>
@@ -7198,7 +7219,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>93</v>
       </c>
@@ -7215,7 +7236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>93</v>
       </c>
@@ -7232,7 +7253,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>93</v>
       </c>
@@ -7249,7 +7270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>93</v>
       </c>
@@ -7266,7 +7287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>93</v>
       </c>
@@ -7283,7 +7304,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>93</v>
       </c>
@@ -7300,7 +7321,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>93</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>93</v>
       </c>
@@ -7334,7 +7355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>93</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>93</v>
       </c>
@@ -7368,7 +7389,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>93</v>
       </c>
@@ -7385,7 +7406,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>93</v>
       </c>
@@ -7402,7 +7423,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>93</v>
       </c>
@@ -7419,7 +7440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>93</v>
       </c>
@@ -7436,7 +7457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>93</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>93</v>
       </c>
@@ -7470,7 +7491,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>93</v>
       </c>
@@ -7487,7 +7508,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>93</v>
       </c>
@@ -7504,7 +7525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>94</v>
       </c>
@@ -7521,7 +7542,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>94</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>94</v>
       </c>
@@ -7555,7 +7576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>94</v>
       </c>
@@ -7572,7 +7593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>94</v>
       </c>
@@ -7589,7 +7610,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>94</v>
       </c>
@@ -7606,7 +7627,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>94</v>
       </c>
@@ -7623,7 +7644,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>94</v>
       </c>
@@ -7640,7 +7661,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>94</v>
       </c>
@@ -7657,7 +7678,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>94</v>
       </c>
@@ -7674,7 +7695,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>94</v>
       </c>
@@ -7691,7 +7712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>94</v>
       </c>
@@ -7708,7 +7729,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>94</v>
       </c>
@@ -7725,7 +7746,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>94</v>
       </c>
@@ -7742,7 +7763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>94</v>
       </c>
@@ -7759,7 +7780,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>94</v>
       </c>
@@ -7776,7 +7797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>94</v>
       </c>
@@ -7793,7 +7814,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>94</v>
       </c>
@@ -7810,7 +7831,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>94</v>
       </c>
@@ -7827,7 +7848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>94</v>
       </c>
@@ -7844,7 +7865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>94</v>
       </c>
@@ -7861,7 +7882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>94</v>
       </c>
@@ -7878,7 +7899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>94</v>
       </c>
@@ -7895,7 +7916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>94</v>
       </c>
@@ -7912,7 +7933,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>94</v>
       </c>
@@ -7929,7 +7950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>94</v>
       </c>
@@ -7946,7 +7967,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>94</v>
       </c>
@@ -7963,7 +7984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>94</v>
       </c>
@@ -7980,7 +8001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>94</v>
       </c>
@@ -7997,7 +8018,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>94</v>
       </c>
@@ -8014,7 +8035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>94</v>
       </c>
@@ -8031,7 +8052,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>94</v>
       </c>
@@ -8048,7 +8069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>94</v>
       </c>
@@ -8065,7 +8086,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>94</v>
       </c>
@@ -8082,7 +8103,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>94</v>
       </c>
@@ -8099,7 +8120,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>94</v>
       </c>
@@ -8116,7 +8137,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>94</v>
       </c>
@@ -8133,7 +8154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>94</v>
       </c>
@@ -8150,7 +8171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>94</v>
       </c>
@@ -8167,7 +8188,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>94</v>
       </c>
@@ -8184,7 +8205,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>94</v>
       </c>
@@ -8201,7 +8222,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>94</v>
       </c>
@@ -8218,7 +8239,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>94</v>
       </c>
@@ -8235,7 +8256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>94</v>
       </c>
@@ -8252,7 +8273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>94</v>
       </c>
@@ -8269,7 +8290,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>94</v>
       </c>
@@ -8286,7 +8307,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>94</v>
       </c>
@@ -8303,7 +8324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>94</v>
       </c>
@@ -8320,7 +8341,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>94</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>94</v>
       </c>
@@ -8354,7 +8375,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>94</v>
       </c>
@@ -8371,7 +8392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>94</v>
       </c>
@@ -8388,7 +8409,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>94</v>
       </c>
@@ -8405,7 +8426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>94</v>
       </c>
@@ -8422,7 +8443,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>94</v>
       </c>
@@ -8439,7 +8460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>94</v>
       </c>
@@ -8456,7 +8477,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>94</v>
       </c>
@@ -8473,7 +8494,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>94</v>
       </c>
@@ -8490,7 +8511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>94</v>
       </c>
@@ -8507,7 +8528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>94</v>
       </c>
@@ -8524,7 +8545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>94</v>
       </c>
@@ -8541,7 +8562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>94</v>
       </c>
@@ -8558,7 +8579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>94</v>
       </c>
@@ -8575,7 +8596,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>94</v>
       </c>
@@ -8592,7 +8613,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>94</v>
       </c>
@@ -8609,7 +8630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>94</v>
       </c>
@@ -8626,7 +8647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>94</v>
       </c>
@@ -8643,7 +8664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>94</v>
       </c>
@@ -8660,7 +8681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>94</v>
       </c>
@@ -8677,7 +8698,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>94</v>
       </c>
@@ -8694,7 +8715,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>94</v>
       </c>
@@ -8711,7 +8732,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>94</v>
       </c>
@@ -8728,7 +8749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>94</v>
       </c>
@@ -8745,7 +8766,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>94</v>
       </c>
@@ -8762,7 +8783,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>94</v>
       </c>
@@ -8779,7 +8800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>94</v>
       </c>
@@ -8796,7 +8817,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>94</v>
       </c>
@@ -8813,7 +8834,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>94</v>
       </c>
@@ -8830,7 +8851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>94</v>
       </c>
@@ -8847,7 +8868,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>94</v>
       </c>
@@ -8864,7 +8885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>94</v>
       </c>
@@ -8881,7 +8902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>94</v>
       </c>
@@ -8898,7 +8919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>94</v>
       </c>
@@ -8915,7 +8936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>94</v>
       </c>
@@ -8932,7 +8953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>94</v>
       </c>
@@ -8949,7 +8970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>94</v>
       </c>
@@ -8966,7 +8987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>94</v>
       </c>
@@ -8983,7 +9004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>94</v>
       </c>
@@ -9000,7 +9021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>94</v>
       </c>
@@ -9017,7 +9038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>94</v>
       </c>
@@ -9034,7 +9055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>94</v>
       </c>
@@ -9051,7 +9072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>94</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>94</v>
       </c>
@@ -9085,7 +9106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>94</v>
       </c>
@@ -9102,7 +9123,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>94</v>
       </c>
@@ -9119,7 +9140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>94</v>
       </c>
@@ -9136,7 +9157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>94</v>
       </c>
@@ -9153,7 +9174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>94</v>
       </c>
@@ -9170,7 +9191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>94</v>
       </c>
@@ -9187,7 +9208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>94</v>
       </c>
@@ -9204,7 +9225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>94</v>
       </c>
@@ -9221,7 +9242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>94</v>
       </c>
@@ -9238,7 +9259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>94</v>
       </c>
@@ -9255,7 +9276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>94</v>
       </c>
@@ -9272,7 +9293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>94</v>
       </c>
@@ -9289,7 +9310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>94</v>
       </c>
@@ -9306,7 +9327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>94</v>
       </c>
@@ -9323,7 +9344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>94</v>
       </c>
@@ -9340,7 +9361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>94</v>
       </c>
@@ -9357,7 +9378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>94</v>
       </c>
@@ -9374,7 +9395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>94</v>
       </c>
@@ -9391,7 +9412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>94</v>
       </c>
@@ -9408,7 +9429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>94</v>
       </c>
@@ -9425,7 +9446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>94</v>
       </c>
@@ -9442,7 +9463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>94</v>
       </c>
@@ -9459,7 +9480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>94</v>
       </c>
@@ -9476,7 +9497,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>94</v>
       </c>
@@ -9493,7 +9514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>94</v>
       </c>
@@ -9510,7 +9531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>94</v>
       </c>
@@ -9527,7 +9548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>94</v>
       </c>
@@ -9544,7 +9565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>94</v>
       </c>
@@ -9561,7 +9582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>94</v>
       </c>
@@ -9578,7 +9599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>94</v>
       </c>
@@ -9595,7 +9616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>94</v>
       </c>
@@ -9612,7 +9633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>94</v>
       </c>
@@ -9629,7 +9650,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>94</v>
       </c>
@@ -9646,7 +9667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>94</v>
       </c>
@@ -9663,7 +9684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>94</v>
       </c>
@@ -9680,7 +9701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>94</v>
       </c>
@@ -9697,7 +9718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>94</v>
       </c>
@@ -9714,7 +9735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>94</v>
       </c>
@@ -9731,7 +9752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>94</v>
       </c>
@@ -9748,7 +9769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>94</v>
       </c>
@@ -9765,7 +9786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>94</v>
       </c>
@@ -9782,7 +9803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>94</v>
       </c>
@@ -9799,7 +9820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>94</v>
       </c>
@@ -9816,7 +9837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>94</v>
       </c>
@@ -9833,7 +9854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>94</v>
       </c>
@@ -9850,7 +9871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>94</v>
       </c>
@@ -9867,7 +9888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>94</v>
       </c>
@@ -9884,7 +9905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>94</v>
       </c>
@@ -9901,7 +9922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>94</v>
       </c>
@@ -9918,7 +9939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>94</v>
       </c>
@@ -9935,7 +9956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>94</v>
       </c>
@@ -9966,13 +9987,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -9983,7 +10004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -9994,7 +10015,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -10005,7 +10026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -10016,7 +10037,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -10027,7 +10048,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -10038,7 +10059,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -10049,7 +10070,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -10073,13 +10094,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -10090,7 +10111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -10101,7 +10122,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -10112,7 +10133,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -10123,7 +10144,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -10134,7 +10155,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -10145,7 +10166,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -10156,7 +10177,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -10167,7 +10188,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -10178,7 +10199,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -10189,7 +10210,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -10200,7 +10221,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -10211,7 +10232,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -10222,7 +10243,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10233,7 +10254,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -10244,7 +10265,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -10255,7 +10276,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -10266,7 +10287,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -10277,7 +10298,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -10288,7 +10309,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -10310,7 +10331,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -10321,7 +10342,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -10332,7 +10353,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -10343,7 +10364,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -10354,7 +10375,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -10379,19 +10400,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10426,7 +10447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -10461,7 +10482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -10496,7 +10517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -10527,7 +10548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -10562,7 +10583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -10597,7 +10618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -10617,7 +10638,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -10652,7 +10673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -10687,7 +10708,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -10710,7 +10731,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -10733,7 +10754,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -10756,7 +10777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -10779,7 +10800,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -10816,13 +10837,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10836,7 +10857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -10850,7 +10871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -10864,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2020</v>
       </c>
@@ -10878,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2025</v>
       </c>
@@ -10892,7 +10913,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2030</v>
       </c>
@@ -10906,7 +10927,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2035</v>
       </c>
@@ -10920,7 +10941,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2040</v>
       </c>
@@ -10934,7 +10955,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2045</v>
       </c>
@@ -10948,7 +10969,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2050</v>
       </c>
@@ -10962,7 +10983,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2055</v>
       </c>
@@ -10990,13 +11011,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11010,7 +11031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11024,7 +11045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -11038,7 +11059,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -11052,7 +11073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -11066,7 +11087,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -11094,13 +11115,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -11108,7 +11129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -11116,7 +11137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11133,13 +11154,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
@@ -11153,7 +11174,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>233</v>
       </c>
@@ -11167,7 +11188,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -11181,7 +11202,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -11195,7 +11216,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -11209,7 +11230,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -11223,7 +11244,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -11237,7 +11258,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -11251,7 +11272,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -11265,7 +11286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -11279,7 +11300,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -11293,7 +11314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -11307,7 +11328,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -11321,7 +11342,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -11335,7 +11356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -11349,7 +11370,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -11363,7 +11384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -11377,7 +11398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -11391,7 +11412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -11405,7 +11426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>230</v>
       </c>
@@ -11419,7 +11440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -11433,7 +11454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -11447,7 +11468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -11461,7 +11482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -11475,7 +11496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -11489,7 +11510,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -11503,7 +11524,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -11517,7 +11538,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -11531,7 +11552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -11545,7 +11566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -11572,9 +11593,9 @@
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -11591,7 +11612,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -11608,7 +11629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
@@ -11622,7 +11643,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
@@ -11636,7 +11657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
@@ -11650,7 +11671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
@@ -11664,7 +11685,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
@@ -11678,7 +11699,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>2050</v>
       </c>
